--- a/medicine/Mort/Décès_en_1971/Décès_en_1971.xlsx
+++ b/medicine/Mort/Décès_en_1971/Décès_en_1971.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1971</t>
+          <t>Décès_en_1971</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1971</t>
+          <t>Décès_en_1971</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Juan Altisent, compositeur espagnol (° 1891).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Juan Altisent, compositeur espagnol (° 1891).
 Pierre Bach, peintre paysagiste français (° 1906).
 Inès Barcy, peintre française (° 1880).
 Alfred Bergier, peintre français (° 1881).
@@ -543,9 +560,43 @@
 Léon Dupin, peintre et affichiste français (° 22 mars 1898).
 Esther de Mézerville, enseignante et militante féministe costaricienne (° 29 avril 1885).
 Guglielmo Pizzirani, peintre italien (° 28 novembre 1886).
-Paolo Scheggi, peintre italien (° 1940)
-Janvier
-2 janvier : Apollinari Doudko, directeur de la photographie et réalisateur soviétique (° 25 juillet 1909).
+Paolo Scheggi, peintre italien (° 1940)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1971</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1971</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier : Apollinari Doudko, directeur de la photographie et réalisateur soviétique (° 25 juillet 1909).
 4 janvier : Jacqueline Pavlowsky, peintre française (° 1er septembre 1921).
 8 janvier : René Simon, professeur d'art dramatique français (° 18 mai 1898).
 9 janvier : Manuel Fernández, joueur et entraîneur de football espagnol naturalisé français (° 1er février 1922).
@@ -562,9 +613,43 @@
 28 janvier : Donald Winnicott, pédiatre et psychanalyste britannique (° 7 avril 1896).
 29 janvier :
 José Arana Goróstegui, footballeur espagnol (° 27 avril 1912).
-Tony Murena, accordéoniste et compositeur italien (° 24 janvier 1915).
-Février
-1er février : Soultan Amet-Khan, as de l'aviation et pilote d’essai soviétique (° 25 octobre 1920).
+Tony Murena, accordéoniste et compositeur italien (° 24 janvier 1915).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1971</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1971</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Soultan Amet-Khan, as de l'aviation et pilote d’essai soviétique (° 25 octobre 1920).
 7 février :  Marie Christophe Robert Borocco, diplomate et résistant français (°17 mai 1909).
 10 février : Henri Huet, peintre et reporter-photographe de guerre français (° 14 avril 1927).
 11 février :
@@ -577,9 +662,43 @@
 21 février : Adolph Weiss, compositeur américain (° 12 novembre 1891).
 22 février : Rudolf Mauersberger, compositeur allemand (° 29 janvier 1889).
 24 février : Albert de Vleeschauwer, homme politique belge (° 1er janvier 1897).
-26 février : Fernandel, comédien, chanteur comique français (° 8 mai 1903).
-Mars
-3 mars : Victor Leemans, homme politique belge (° 21 juillet 1901).
+26 février : Fernandel, comédien, chanteur comique français (° 8 mai 1903).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1971</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1971</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 mars : Victor Leemans, homme politique belge (° 21 juillet 1901).
 8 mars :
 Harold Lloyd, comédien, américain (° 20 avril 1893).
 Lucila Luciani de Pérez Díaz, historienne, écrivaine et féministe vénézuélienne (° 21 janvier 1882).
@@ -590,9 +709,43 @@
 22 mars : Vicente Saura, footballeur espagnol (° 27 février 1901).
 27 mars : Manuel Rodríguez Lozano, peintre mexicain (° 4 décembre 1891).
 28 mars : Felix Wolfes, compositeur et chef d'orchestre allemand (° 2 septembre 1892).
-31 mars : Michael Browne, cardinal irlandais, maître général des dominicains (° 6 mai 1886).
-Avril
-5 avril : Maurice De Korte, sculpteur belge (° 8 août 1889).
+31 mars : Michael Browne, cardinal irlandais, maître général des dominicains (° 6 mai 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1971</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1971</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>5 avril : Maurice De Korte, sculpteur belge (° 8 août 1889).
 6 avril : Igor Stravinsky, compositeur russe (° 17 juin 1882).
 8 avril : Gaston Balande, peintre et dessinateur français (°31 mai 1880).
 11 avril : Marcel Gromaire, peintre, graveur, décorateur, illustrateur et cartonnier français (° 24 juillet 1892).
@@ -606,9 +759,43 @@
 Barnett Parker, acteur britannique (° 3 septembre 1897).
 21 avril : François « Papa Doc » Duvalier, dictateur haïtien (° 14 avril 1907).
 25 avril : Arthur Rigby, acteur et scénariste britannique (° 27 septembre 1900).
-30 avril : Henri Adeline, général de brigade et résistant français (° 8 mai 1898).
-Mai
-3 mai :
+30 avril : Henri Adeline, général de brigade et résistant français (° 8 mai 1898).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1971</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1971</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3 mai :
 Ksenia Bogouslavskaïa, peintre, illustratrice et décoratrice de théâtre russe puis soviétique (° 24 janvier 1892).
 Massimo Campigli, peintre italien (° 4 juillet 1895).
 10 mai : Shūkichi Mitsukuri, compositeur japonais de musique classique (° 21 octobre 1895).
@@ -627,9 +814,43 @@
 Max Trapp, compositeur et pédagogue allemand (° 1er novembre 1887).
 Carlos Martínez Baena, acteur et scénariste hispano-mexicain (° 7 mai 1889).
 30 mai : Marcel Dupré, organiste, improvisateur, pédagogue et compositeur français (° 3 mai 1886).
-31 mai : Norman Wilkinson, peintre, illustrateur, affichiste et camoufleur de guerre britannique (° 24 novembre 1878).
-Juin
-4 juin : Georg Lukacs, philosophe et homme politique hongrois (° 13 avril 1885).
+31 mai : Norman Wilkinson, peintre, illustrateur, affichiste et camoufleur de guerre britannique (° 24 novembre 1878).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1971</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1971</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4 juin : Georg Lukacs, philosophe et homme politique hongrois (° 13 avril 1885).
 7 juin : Camille Gutt, homme politique belge (° 14 novembre 1884).
 10 juin : Michael Rennie, acteur britannique (° 25 août 1909).
 18 juin :
@@ -647,9 +868,43 @@
 Gueorgui Dobrovolski, cosmonaute russe (° 1er juin 1928).
 Alberto Ghilardi, coureur cycliste italien (° 25 aout 1909).
 Viktor Patsaïev, cosmonaute russe (° 19 juin 1933).
-Vladislav Volkov, cosmonaute russe (° 23 novembre 1935).
-Juillet
-3 juillet : Jim Morrison, chanteur, auteur-compositeur et poète américain (° 8 décembre 1943).
+Vladislav Volkov, cosmonaute russe (° 23 novembre 1935).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1971</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1971</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3 juillet : Jim Morrison, chanteur, auteur-compositeur et poète américain (° 8 décembre 1943).
 4 juillet :
 August Derleth, écrivain, anthologiste et éditeur américain (° 24 février 1909).
 Raymond Feuillatte, peintre français (° 13 mai 1901).
@@ -665,9 +920,43 @@
 Leroy Robertson, compositeur et enseignant américain (° 21 décembre 1896).
 27 juillet : José Mata, matador espagnol (° 23 juillet 1937).
 29 juillet : Georges Hermann, peintre, graveur, plasticien, théoricien de l'art et chimiste français (° 26 juin 1923).
-31 juillet : Gerardo Salvador Merino, juriste, homme politique et gestionnaire d’entreprise espagnol (° 8 septembre 1910).
-Août
-1er août : August Oberhauser, footballeur international suisse (° 4 mars 1899).
+31 juillet : Gerardo Salvador Merino, juriste, homme politique et gestionnaire d’entreprise espagnol (° 8 septembre 1910).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1971</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1971</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er août : August Oberhauser, footballeur international suisse (° 4 mars 1899).
 2 août : Anton Grylewicz, ouvrier et homme politique allemand social-démocrate puis communiste (° 8 janvier 1885).
 6 août : Maurice Duhaupas, peintre français (° 20 février 1891).
 8 août : Paul Deltombe, peintre français (° 6 avril 1878).
@@ -681,9 +970,43 @@
 27 août :
 Elio Bertocchi, coureur cycliste italien (° 16 septembre 1916).
 Giannino Castiglioni, sculpteur et médailleur italien (° 4 août 1884).
-31 août : René Aberlenc, peintre français (° 10 novembre 1920).
-Septembre
-1er septembre :
+31 août : René Aberlenc, peintre français (° 10 novembre 1920).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1971</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1971</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre :
 Léon Dostert, linguiste et traducteur français (° 12 mai 1904).
 Serge Fotinsky, peintre, aquarelliste, graveur et illustrateur russe puis soviétique et français (° 3 février 1887).
 3 septembre : Alphonse Neyens, homme politique luxembourgeois (° 7 janvier 1886).
@@ -697,9 +1020,43 @@
 22 septembre : Paul Lemasson, peintre français (° 10 janvier 1897).
 25 septembre : Hugo Black, homme politique et juriste américain (° 27 février 1886).
 28 septembre : Bohuslav Reynek, poète, écrivain, peintre, graveur, illustrateur et traducteur austro-hongrois puis tchécoslovaque (° 31 mai 1892).
-30 septembre : Gaston Gardet, footballeur français (° 2 avril 1913).
-Octobre
-6 octobre : Kawashima Rüchiro, peintre japonais (° 9 mars 1886).
+30 septembre : Gaston Gardet, footballeur français (° 2 avril 1913).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1971</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1971</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6 octobre : Kawashima Rüchiro, peintre japonais (° 9 mars 1886).
 8 octobre : Joseph Inguimberty,  peintre français (° 18 janvier 1896).
 10 octobre :
 Reginald McNamara, coureur cycliste sur piste australien (° 7 novembre 1888).
@@ -720,9 +1077,43 @@
 Joseph Siffert, coureur automobile suisse (° 17 juillet 1936).
 Carl Ruggles, compositeur américain (° 11 mars 1876).
 26 octobre : Yves de la Casinière, musicien, compositeur et pédagogue français (° 11 février 1897).
-31 octobre : Roger Guérillot, colon français puis centrafricain (° 12 novembre 1904).
-Novembre
-1er novembre :
+31 octobre : Roger Guérillot, colon français puis centrafricain (° 12 novembre 1904).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1971</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1971</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre :
 Robert Bonfils, illustrateur, peintre, graveur et relieur français (° 15 octobre 1883).
 Jeanne Coppel, peintre française (° 16 mai 1896).
 5 novembre :
@@ -741,9 +1132,43 @@
 Barão de Itararé, journaliste, écrivain et humoriste brésilien (° 29 janvier 1895).
 Jan Groenestein, sculpteur, designer, peintre, pastelliste, aquarelliste, lithographe et aquafortiste néerlandais (° 4 octobre 1919).
 30 novembre : Salvatore Crippa, coureur cycliste italien (° 2 novembre 1914).
-? novembre : Sydney Herbert Wilson, agriculteur et homme politique fidjien (° vers 1886).
-Décembre
-1er décembre : Israël Elsner, footballeur international israëlien (° 31 août 1909).
+? novembre : Sydney Herbert Wilson, agriculteur et homme politique fidjien (° vers 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1971</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1971</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1er décembre : Israël Elsner, footballeur international israëlien (° 31 août 1909).
 2 décembre : René Crevel, architecte, décorateur et peintre français (° 23 février 1892).
 5 décembre :
 Andreï Andreïev, homme politique russe puis soviétique (° 18 octobre 1895).
@@ -757,9 +1182,43 @@
 Alexandre Trifonovitch Tvardovski, poète et écrivain russe soviétique (° 21 juin 1910).
 20 décembre : Amerigo Bartoli, peintre, caricaturiste et écrivain italien (° 24 décembre 1890).
 28 décembre : Max Steiner, compositeur de musique de film américain (° 10 mai 1888).
-29 décembre : Bert Shelley, footballeur puis entraîneur anglais (° 11 août 1899).
-Date inconnue
-André La Vernède, peintre et aquarelliste français (° 11 octobre 1899).</t>
+29 décembre : Bert Shelley, footballeur puis entraîneur anglais (° 11 août 1899).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1971</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1971</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>André La Vernède, peintre et aquarelliste français (° 11 octobre 1899).</t>
         </is>
       </c>
     </row>
